--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,69; 49,06</t>
+          <t>33,4; 47,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,91; 55,86</t>
+          <t>41,67; 56,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,72; 39,97</t>
+          <t>26,8; 40,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>183,65; 457,33</t>
+          <t>190,72; 457,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>257,8; 621,11</t>
+          <t>259,07; 648,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,2; 76,25</t>
+          <t>41,82; 76,09</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,54; 51,07</t>
+          <t>40,69; 51,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,36; 57,68</t>
+          <t>46,91; 57,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,05; 51,32</t>
+          <t>41,15; 51,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 24,34</t>
+          <t>12,36; 24,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>361,86; 719,68</t>
+          <t>356,19; 726,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>407,71; 853,7</t>
+          <t>412,2; 855,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>310,96; 641,26</t>
+          <t>329,98; 663,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 35,63</t>
+          <t>16,0; 35,9</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,17; 55,58</t>
+          <t>43,48; 55,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,36; 54,66</t>
+          <t>42,52; 54,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,99; 52,56</t>
+          <t>39,66; 52,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 18,15</t>
+          <t>7,62; 18,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>412,28; 1155,08</t>
+          <t>416,06; 1170,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>422,08; 1145,88</t>
+          <t>434,79; 1206,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>297,9; 691,19</t>
+          <t>292,94; 692,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 25,35</t>
+          <t>9,58; 25,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,53; 46,0</t>
+          <t>34,79; 45,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,02; 55,1</t>
+          <t>45,89; 55,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,85; 52,85</t>
+          <t>39,51; 52,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 30,56</t>
+          <t>15,36; 29,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>391,81; 1069,26</t>
+          <t>395,12; 1049,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>350,8; 614,15</t>
+          <t>336,13; 607,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>186,56; 372,59</t>
+          <t>190,08; 379,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,25; 51,21</t>
+          <t>21,58; 50,22</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 50,34</t>
+          <t>33,43; 50,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,51; 55,06</t>
+          <t>40,27; 54,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,18; 51,19</t>
+          <t>33,9; 51,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 12,21</t>
+          <t>1,92; 12,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>212,15; 678,7</t>
+          <t>216,63; 605,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>422,3; 1528,64</t>
+          <t>420,11; 1404,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>171,11; 448,71</t>
+          <t>164,83; 440,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 14,86</t>
+          <t>2,14; 14,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,9; 56,36</t>
+          <t>42,98; 56,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,81; 51,74</t>
+          <t>39,19; 51,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,16; 58,9</t>
+          <t>44,62; 58,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 20,56</t>
+          <t>9,25; 20,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>586,14; 1966,52</t>
+          <t>602,78; 1998,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>512,65; 1658,08</t>
+          <t>481,64; 1622,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>293,37; 780,16</t>
+          <t>307,59; 791,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,48; 28,61</t>
+          <t>11,66; 28,01</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,29; 52,48</t>
+          <t>43,35; 52,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,33; 45,86</t>
+          <t>36,54; 45,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,73; 38,74</t>
+          <t>28,16; 38,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 22,62</t>
+          <t>11,49; 22,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>337,21; 635,62</t>
+          <t>340,19; 615,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>296,71; 583,01</t>
+          <t>305,16; 566,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>132,67; 236,92</t>
+          <t>131,68; 236,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,71; 32,66</t>
+          <t>15,1; 31,96</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,79; 50,1</t>
+          <t>41,82; 49,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,26; 44,15</t>
+          <t>35,51; 43,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 36,76</t>
+          <t>27,59; 36,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,99; 59,51</t>
+          <t>46,88; 59,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>507,54; 958,6</t>
+          <t>519,8; 993,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>256,61; 474,34</t>
+          <t>265,67; 462,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>163,91; 289,66</t>
+          <t>162,84; 281,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>105,32; 177,45</t>
+          <t>105,27; 181,38</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>43,54; 47,47</t>
+          <t>43,64; 47,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43,67; 47,54</t>
+          <t>43,75; 47,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,77; 43,27</t>
+          <t>39,01; 43,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,33</t>
+          <t>24,07; 29,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>463,63; 623,0</t>
+          <t>462,41; 623,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>423,51; 558,03</t>
+          <t>423,76; 563,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>251,12; 323,52</t>
+          <t>253,95; 320,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,58; 49,89</t>
+          <t>36,28; 49,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 47,96</t>
+          <t>33,63; 48,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,67; 56,61</t>
+          <t>42,22; 56,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>190,72; 457,42</t>
+          <t>188,22; 456,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>259,07; 648,07</t>
+          <t>245,21; 625,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,69; 51,11</t>
+          <t>40,26; 50,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,91; 57,5</t>
+          <t>46,82; 56,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 51,43</t>
+          <t>41,89; 51,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>356,19; 726,22</t>
+          <t>345,66; 715,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>412,2; 855,64</t>
+          <t>411,27; 885,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>329,98; 663,78</t>
+          <t>320,89; 657,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,48; 55,45</t>
+          <t>43,43; 55,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,52; 54,64</t>
+          <t>42,64; 55,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,66; 52,38</t>
+          <t>39,78; 52,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>416,06; 1170,2</t>
+          <t>413,25; 1163,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>434,79; 1206,68</t>
+          <t>432,57; 1212,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>292,94; 692,7</t>
+          <t>288,14; 650,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,79; 45,59</t>
+          <t>34,49; 46,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,89; 55,04</t>
+          <t>45,27; 54,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,51; 52,79</t>
+          <t>39,8; 52,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>395,12; 1049,07</t>
+          <t>393,42; 1067,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>336,13; 607,1</t>
+          <t>347,05; 633,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>190,08; 379,82</t>
+          <t>188,63; 370,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,43; 50,31</t>
+          <t>33,78; 50,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,81</t>
+          <t>40,56; 55,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,9; 51,07</t>
+          <t>34,44; 50,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>216,63; 605,18</t>
+          <t>218,45; 621,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>420,11; 1404,22</t>
+          <t>403,5; 1450,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>164,83; 440,0</t>
+          <t>167,19; 422,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,98; 56,13</t>
+          <t>43,81; 56,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,19; 51,86</t>
+          <t>39,69; 52,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,62; 58,48</t>
+          <t>44,62; 58,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>602,78; 1998,78</t>
+          <t>613,81; 2101,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>481,64; 1622,26</t>
+          <t>497,92; 1714,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>307,59; 791,4</t>
+          <t>314,26; 759,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,35; 52,54</t>
+          <t>43,45; 53,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,54; 45,91</t>
+          <t>36,27; 45,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 38,12</t>
+          <t>28,64; 38,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>340,19; 615,64</t>
+          <t>342,14; 639,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>305,16; 566,0</t>
+          <t>310,73; 580,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>131,68; 236,5</t>
+          <t>132,33; 230,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,82; 49,78</t>
+          <t>41,93; 50,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,51; 43,94</t>
+          <t>35,78; 43,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,59; 36,15</t>
+          <t>27,52; 36,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>519,8; 993,72</t>
+          <t>529,54; 1040,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>265,67; 462,12</t>
+          <t>264,64; 464,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>162,84; 281,6</t>
+          <t>165,26; 291,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>43,64; 47,7</t>
+          <t>43,53; 47,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43,75; 47,89</t>
+          <t>43,69; 47,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,01; 43,19</t>
+          <t>38,82; 43,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>462,41; 623,16</t>
+          <t>466,28; 628,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>423,76; 563,65</t>
+          <t>423,69; 556,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>253,95; 320,97</t>
+          <t>254,04; 326,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>301,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>398,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 48,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,22; 56,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,8; 40,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>188,22; 456,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>245,21; 625,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 76,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>503,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>589,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>452,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,26; 50,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,82; 56,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,89; 51,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 24,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>345,66; 715,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>411,27; 885,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>320,89; 657,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 35,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>676,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>709,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>446,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,43; 55,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,64; 55,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,78; 52,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>413,25; 1163,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>432,57; 1212,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>288,14; 650,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 25,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>651,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>458,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>265,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 46,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,27; 54,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 52,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 29,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>393,42; 1067,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>347,05; 633,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>188,63; 370,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,58; 50,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>368,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>771,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>271,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,78; 50,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,56; 55,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,44; 50,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 12,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>218,45; 621,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>403,5; 1450,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>167,19; 422,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 14,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1064,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>875,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>481,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,81; 56,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,69; 52,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,62; 58,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 20,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>613,81; 2101,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>497,92; 1714,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>314,26; 759,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,66; 28,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>48,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>456,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>413,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>175,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,45; 53,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,27; 45,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,64; 38,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 22,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>342,14; 639,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>310,73; 580,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>132,33; 230,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,1; 31,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>703,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>355,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>215,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>127,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,93; 50,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,78; 43,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,52; 36,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,88; 59,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>529,54; 1040,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>264,64; 464,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>165,26; 291,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>105,27; 181,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>40,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>541,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>487,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>285,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>43,53; 47,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43,69; 47,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,82; 43,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,07; 29,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>466,28; 628,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>423,69; 556,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>254,04; 326,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,28; 49,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">

--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
